--- a/CashFlow/CLX_cashflow.xlsx
+++ b/CashFlow/CLX_cashflow.xlsx
@@ -74,7 +74,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -250,7 +250,7 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>306000000.0</v>
+        <v>925000000.0</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1225000000.0</v>
@@ -376,10 +376,8 @@
           <t>Depreciation &amp; Amortization</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>533000000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>196000000.0</v>
@@ -505,10 +503,8 @@
           <t>Non Cash Items (Other)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>-12000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>37000000.0</v>
@@ -634,10 +630,8 @@
           <t>Accounts Receivable Change</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>121000000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>-41000000.0</v>
@@ -763,25 +757,23 @@
           <t>Change in inventories</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>234000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2054000000.0</v>
+        <v>367000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1959000000.0</v>
+        <v>428000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1431000000.0</v>
+        <v>504000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1021000000.0</v>
+        <v>94000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>587000000.0</v>
+        <v>64000000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>12000000.0</v>
@@ -892,25 +884,23 @@
           <t>Change in payables and accrued liability</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>332000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5169000000.0</v>
+        <v>394000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4738000000.0</v>
+        <v>393000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3265000000.0</v>
+        <v>291000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2015000000.0</v>
+        <v>125000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>920000000.0</v>
+        <v>-20000000.0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>-13000000.0</v>
@@ -1021,10 +1011,8 @@
           <t>Income tax paid</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>-40000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>-57000000.0</v>
@@ -1152,10 +1140,8 @@
           <t>Change in other assets and liabilities</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>-72000000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>-51000000.0</v>
@@ -1283,10 +1269,8 @@
           <t>Operating Cash Flow</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>1633000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1677000000.0</v>
@@ -1412,10 +1396,8 @@
           <t>Capital expenditures</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>-328000000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>-294000000.0</v>
@@ -1541,10 +1523,8 @@
           <t>Net Aquisitions</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>-766000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>-1056000000.0</v>
@@ -1732,10 +1712,8 @@
           <t>Other investing activities</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>-9000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>-7000000.0</v>
@@ -1869,10 +1847,8 @@
           <t>Investing cash flow</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>-448000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>-412000000.0</v>
@@ -2131,10 +2107,8 @@
           <t>Equity Repurchase (Common, Net)</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>-496000000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>-134000000.0</v>
@@ -2260,10 +2234,8 @@
           <t>Dividends Paid (Total)</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-572000000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-547000000.0</v>
@@ -2592,10 +2564,8 @@
           <t>Financing cash flow</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>-1206000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>-709000000.0</v>
@@ -2721,10 +2691,8 @@
           <t>Exchange Rate Adjustment</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>13000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>7000000.0</v>
@@ -2854,10 +2822,8 @@
           <t>Change in Cash</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>-8000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>563000000.0</v>
@@ -2983,10 +2949,8 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>879000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>879000000.0</v>
@@ -3112,10 +3076,8 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>871000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1442000000.0</v>
@@ -3241,10 +3203,8 @@
           <t>Stock Based Compensation</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>65000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>66000000.0</v>
@@ -3371,7 +3331,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>-134000000.0</v>
+        <v>-572000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>-547000000.0</v>
@@ -3497,10 +3457,8 @@
           <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>183000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>215000000.0</v>
@@ -3626,10 +3584,8 @@
           <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>-496000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>-134000000.0</v>
